--- a/intro_to_wc_modeling/cell_modeling/simulation/multi_algorithm/Model-Simulation-WC-Lang.xlsx
+++ b/intro_to_wc_modeling/cell_modeling/simulation/multi_algorithm/Model-Simulation-WC-Lang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" firstSheet="16" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12600" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4378,10 +4378,10 @@
     <t>L_asparaginyl_L_asparagine</t>
   </si>
   <si>
-    <t>NC(=O)CC([NH3+])C(=O)ONC(CC(N)=O)C([O-])=O</t>
-  </si>
-  <si>
-    <t>C8H14N4O6</t>
+    <t>NC(=O)CC([NH3+])C(=O)NC(CC(N)=O)C([O-])=O</t>
+  </si>
+  <si>
+    <t>C8H14N4O5</t>
   </si>
   <si>
     <t>ASP</t>
@@ -7684,7 +7684,7 @@
     <t>Transcription (Adenylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (81) ATP + (75) CTP + (86) GTP + (61) UTP + H2O ==&gt; AdkRna + (303) PPI + H</t>
+    <t>[c]: (81) ATP + (75) CTP + (86) GTP + (61) UTP + H2O ==&gt; AdkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Apt</t>
@@ -7693,7 +7693,7 @@
     <t>Transcription (Adenine phosphoribosyltransferase )</t>
   </si>
   <si>
-    <t>[c]: (62) ATP + (81) CTP + (71) GTP + (89) UTP + H2O ==&gt; AptRna + (303) PPI + H</t>
+    <t>[c]: (62) ATP + (81) CTP + (71) GTP + (89) UTP + H2O ==&gt; AptRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Cmk</t>
@@ -7702,7 +7702,7 @@
     <t>Transcription (Cytidylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (78) ATP + (75) CTP + (74) GTP + (76) UTP + H2O ==&gt; CmkRna + (303) PPI + H</t>
+    <t>[c]: (78) ATP + (75) CTP + (74) GTP + (76) UTP + H2O ==&gt; CmkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Eno</t>
@@ -7711,7 +7711,7 @@
     <t>Transcription (Enolase)</t>
   </si>
   <si>
-    <t>[c]: (89) ATP + (78) CTP + (63) GTP + (73) UTP + H2O ==&gt; EnoRna + (303) PPI + H</t>
+    <t>[c]: (89) ATP + (78) CTP + (63) GTP + (73) UTP + H2O ==&gt; EnoRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Fba</t>
@@ -7720,7 +7720,7 @@
     <t>Transcription (Fructose_biphosphate aldolase)</t>
   </si>
   <si>
-    <t>[c]: (59) ATP + (81) CTP + (83) GTP + (80) UTP + H2O ==&gt; FbaRna + (303) PPI + H</t>
+    <t>[c]: (59) ATP + (81) CTP + (83) GTP + (80) UTP + H2O ==&gt; FbaRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Gap</t>
@@ -7729,7 +7729,7 @@
     <t>Transcription (Glyceraldehyde_3_phosphate_dehydrogenase)</t>
   </si>
   <si>
-    <t>[c]: (64) ATP + (74) CTP + (78) GTP + (87) UTP + H2O ==&gt; GapRna + (303) PPI + H</t>
+    <t>[c]: (64) ATP + (74) CTP + (78) GTP + (87) UTP + H2O ==&gt; GapRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Gk</t>
@@ -7738,7 +7738,7 @@
     <t>Transcription (Guanylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (73) ATP + (77) CTP + (73) GTP + (80) UTP + H2O ==&gt; GkRna + (303) PPI + H</t>
+    <t>[c]: (73) ATP + (77) CTP + (73) GTP + (80) UTP + H2O ==&gt; GkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Hpt</t>
@@ -7747,7 +7747,7 @@
     <t>Transcription (Hypoxanthine_guanine phosphoribosyltransferase)</t>
   </si>
   <si>
-    <t>[c]: (64) ATP + (74) CTP + (92) GTP + (73) UTP + H2O ==&gt; HptRna + (303) PPI + H</t>
+    <t>[c]: (64) ATP + (74) CTP + (92) GTP + (73) UTP + H2O ==&gt; HptRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_LacA</t>
@@ -7756,7 +7756,7 @@
     <t>Transcription (Probable ribose_5_phosphate isomerase B )</t>
   </si>
   <si>
-    <t>[c]: (83) ATP + (71) CTP + (74) GTP + (75) UTP + H2O ==&gt; LacARna + (303) PPI + H</t>
+    <t>[c]: (83) ATP + (71) CTP + (74) GTP + (75) UTP + H2O ==&gt; LacARna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Ldh</t>
@@ -7765,7 +7765,7 @@
     <t>Transcription (L_lactate dehydrogenase)</t>
   </si>
   <si>
-    <t>[c]: (70) ATP + (73) CTP + (80) GTP + (80) UTP + H2O ==&gt; LdhRna + (303) PPI + H</t>
+    <t>[c]: (70) ATP + (73) CTP + (80) GTP + (80) UTP + H2O ==&gt; LdhRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Nox</t>
@@ -7774,7 +7774,7 @@
     <t>Transcription (Probable NADH oxidase)</t>
   </si>
   <si>
-    <t>[c]: (73) ATP + (75) CTP + (75) GTP + (80) UTP + H2O ==&gt; NoxRna + (303) PPI + H</t>
+    <t>[c]: (73) ATP + (75) CTP + (75) GTP + (80) UTP + H2O ==&gt; NoxRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_PeptAbcTransporter</t>
@@ -7783,7 +7783,7 @@
     <t>Transcription (Peptide ABC transporter)</t>
   </si>
   <si>
-    <t>[c]: (70) ATP + (69) CTP + (78) GTP + (86) UTP + H2O ==&gt; PeptAbcTransporterRna + (303) PPI + H</t>
+    <t>[c]: (70) ATP + (69) CTP + (78) GTP + (86) UTP + H2O ==&gt; PeptAbcTransporterRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Pfk</t>
@@ -7792,7 +7792,7 @@
     <t>Transcription (6_phosphofructokinase /Phosphohexokinase)</t>
   </si>
   <si>
-    <t>[c]: (72) ATP + (65) CTP + (71) GTP + (95) UTP + H2O ==&gt; PfkRna + (303) PPI + H</t>
+    <t>[c]: (72) ATP + (65) CTP + (71) GTP + (95) UTP + H2O ==&gt; PfkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_PgiB</t>
@@ -7801,7 +7801,7 @@
     <t>Transcription (Glucose_6_phosphate isomerase )</t>
   </si>
   <si>
-    <t>[c]: (72) ATP + (84) CTP + (87) GTP + (60) UTP + H2O ==&gt; PgiBRna + (303) PPI + H</t>
+    <t>[c]: (72) ATP + (84) CTP + (87) GTP + (60) UTP + H2O ==&gt; PgiBRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Pgk</t>
@@ -7810,7 +7810,7 @@
     <t>Transcription (Phosphoglycerate kinase)</t>
   </si>
   <si>
-    <t>[c]: (70) ATP + (83) CTP + (73) GTP + (77) UTP + H2O ==&gt; PgkRna + (303) PPI + H</t>
+    <t>[c]: (70) ATP + (83) CTP + (73) GTP + (77) UTP + H2O ==&gt; PgkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Pgm</t>
@@ -7819,7 +7819,7 @@
     <t>Transcription (2,3_bisphosphoglycerate_independent phosphoglycerate mutase )</t>
   </si>
   <si>
-    <t>[c]: (68) ATP + (84) CTP + (75) GTP + (76) UTP + H2O ==&gt; PgmRna + (303) PPI + H</t>
+    <t>[c]: (68) ATP + (84) CTP + (75) GTP + (76) UTP + H2O ==&gt; PgmRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_PiAbcTransporter</t>
@@ -7828,7 +7828,7 @@
     <t>Transcription (Phosphate ABC transporter)</t>
   </si>
   <si>
-    <t>[c]: (67) ATP + (84) CTP + (78) GTP + (74) UTP + H2O ==&gt; PiAbcTransporterRna + (303) PPI + H</t>
+    <t>[c]: (67) ATP + (84) CTP + (78) GTP + (74) UTP + H2O ==&gt; PiAbcTransporterRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Ppa</t>
@@ -7837,7 +7837,7 @@
     <t>Transcription (Inorganic pyrophosphatase )</t>
   </si>
   <si>
-    <t>[c]: (81) ATP + (77) CTP + (67) GTP + (78) UTP + H2O ==&gt; PpaRna + (303) PPI + H</t>
+    <t>[c]: (81) ATP + (77) CTP + (67) GTP + (78) UTP + H2O ==&gt; PpaRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Prs</t>
@@ -7846,7 +7846,7 @@
     <t>Transcription (Ribose_phosphate pyrophosphokinase )</t>
   </si>
   <si>
-    <t>[c]: (79) ATP + (74) CTP + (79) GTP + (71) UTP + H2O ==&gt; PrsRna + (303) PPI + H</t>
+    <t>[c]: (79) ATP + (74) CTP + (79) GTP + (71) UTP + H2O ==&gt; PrsRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Pts</t>
@@ -7855,7 +7855,7 @@
     <t>Transcription (PTS EIIABC (glucose))</t>
   </si>
   <si>
-    <t>[c]: (77) ATP + (89) CTP + (69) GTP + (68) UTP + H2O ==&gt; PtsRna + (303) PPI + H</t>
+    <t>[c]: (77) ATP + (89) CTP + (69) GTP + (68) UTP + H2O ==&gt; PtsRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Pyk</t>
@@ -7864,7 +7864,7 @@
     <t>Transcription (Pyruvate kinase)</t>
   </si>
   <si>
-    <t>[c]: (77) ATP + (87) CTP + (75) GTP + (64) UTP + H2O ==&gt; PykRna + (303) PPI + H</t>
+    <t>[c]: (77) ATP + (87) CTP + (75) GTP + (64) UTP + H2O ==&gt; PykRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_PyrH</t>
@@ -7873,7 +7873,7 @@
     <t>Transcription (Uridylate kinase )</t>
   </si>
   <si>
-    <t>[c]: (78) ATP + (86) CTP + (59) GTP + (80) UTP + H2O ==&gt; PyrHRna + (303) PPI + H</t>
+    <t>[c]: (78) ATP + (86) CTP + (59) GTP + (80) UTP + H2O ==&gt; PyrHRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Ribosome</t>
@@ -7882,7 +7882,7 @@
     <t>Transcription (Ribosome)</t>
   </si>
   <si>
-    <t>[c]: (73) ATP + (83) CTP + (68) GTP + (79) UTP + H2O ==&gt; RibosomeRna + (303) PPI + H</t>
+    <t>[c]: (73) ATP + (83) CTP + (68) GTP + (79) UTP + H2O ==&gt; RibosomeRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_RnaPolymerase</t>
@@ -7891,7 +7891,7 @@
     <t>Transcription (RNA polymerase)</t>
   </si>
   <si>
-    <t>[c]: (79) ATP + (68) CTP + (70) GTP + (86) UTP + H2O ==&gt; RnaPolymeraseRna + (303) PPI + H</t>
+    <t>[c]: (79) ATP + (68) CTP + (70) GTP + (86) UTP + H2O ==&gt; RnaPolymeraseRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Rnase</t>
@@ -7900,7 +7900,7 @@
     <t>Transcription (RNase)</t>
   </si>
   <si>
-    <t>[c]: (65) ATP + (82) CTP + (83) GTP + (73) UTP + H2O ==&gt; RnaseRna + (303) PPI + H</t>
+    <t>[c]: (65) ATP + (82) CTP + (83) GTP + (73) UTP + H2O ==&gt; RnaseRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Rpe</t>
@@ -7909,7 +7909,7 @@
     <t>Transcription (Probable ribulose_phosphate 3_epimerase)</t>
   </si>
   <si>
-    <t>[c]: (91) ATP + (73) CTP + (79) GTP + (60) UTP + H2O ==&gt; RpeRna + (303) PPI + H</t>
+    <t>[c]: (91) ATP + (73) CTP + (79) GTP + (60) UTP + H2O ==&gt; RpeRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Tim</t>
@@ -7918,7 +7918,7 @@
     <t>Transcription (Triosephosphate isomerase )</t>
   </si>
   <si>
-    <t>[c]: (68) ATP + (70) CTP + (78) GTP + (87) UTP + H2O ==&gt; TimRna + (303) PPI + H</t>
+    <t>[c]: (68) ATP + (70) CTP + (78) GTP + (87) UTP + H2O ==&gt; TimRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_TklB</t>
@@ -7927,7 +7927,7 @@
     <t>Transcription (Transketolase )</t>
   </si>
   <si>
-    <t>[c]: (74) ATP + (87) CTP + (71) GTP + (71) UTP + H2O ==&gt; TklBRna + (303) PPI + H</t>
+    <t>[c]: (74) ATP + (87) CTP + (71) GTP + (71) UTP + H2O ==&gt; TklBRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Udk</t>
@@ -7936,7 +7936,7 @@
     <t>Transcription (Uridine kinase)</t>
   </si>
   <si>
-    <t>[c]: (82) ATP + (74) CTP + (77) GTP + (70) UTP + H2O ==&gt; UdkRna + (303) PPI + H</t>
+    <t>[c]: (82) ATP + (74) CTP + (77) GTP + (70) UTP + H2O ==&gt; UdkRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Transcription_Upp</t>
@@ -7945,7 +7945,7 @@
     <t>Transcription (Uracil phosphoribosyltransferase )</t>
   </si>
   <si>
-    <t>[c]: (76) ATP + (92) CTP + (65) GTP + (70) UTP + H2O ==&gt; UppRna + (303) PPI + H</t>
+    <t>[c]: (76) ATP + (92) CTP + (65) GTP + (70) UTP + H2O ==&gt; UppRna + (303) PPI + (304) H</t>
   </si>
   <si>
     <t>Translation_Adk</t>
@@ -7954,7 +7954,7 @@
     <t>Translation (Adenylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (4) ALA + (11) ARG + (5) ASP + (1) ASN + (3) CYS + (3) GLN + (5) GLU + (5) GLY + (3) HIS + (2) ILE + (10) LEU + (3) LYS + (3) MET + (1) PHE + (7) PRO + (9) SER + (14) THR + (1) TRP + (2) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; AdkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (4) ALA + (11) ARG + (5) ASP + (1) ASN + (3) CYS + (3) GLN + (5) GLU + (5) GLY + (3) HIS + (2) ILE + (10) LEU + (3) LYS + (3) MET + (1) PHE + (7) PRO + (9) SER + (14) THR + (1) TRP + (2) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; AdkProtein + (203) GDP + (203) PI + (172) H + (10) H2O</t>
   </si>
   <si>
     <t>Translation_Apt</t>
@@ -7963,7 +7963,7 @@
     <t>Translation (Adenine phosphoribosyltransferase )</t>
   </si>
   <si>
-    <t>[c]: (6) ALA + (13) ARG + (4) ASP + (4) ASN + (7) CYS + (1) GLN + (2) GLU + (4) GLY + (2) HIS + (4) ILE + (10) LEU + (1) LYS + (2) MET + (7) PHE + (2) PRO + (11) SER + (9) THR + (2) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; AptProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (6) ALA + (13) ARG + (4) ASP + (4) ASN + (7) CYS + (1) GLN + (2) GLU + (4) GLY + (2) HIS + (4) ILE + (10) LEU + (1) LYS + (2) MET + (7) PHE + (2) PRO + (11) SER + (9) THR + (2) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; AptProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Cmk</t>
@@ -7972,7 +7972,7 @@
     <t>Translation (Cytidylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (7) ARG + (3) ASP + (6) ASN + (7) CYS + (4) GLN + (3) GLU + (7) GLY + (3) HIS + (4) ILE + (12) LEU + (2) LYS + (2) MET + (1) PHE + (7) PRO + (7) SER + (7) THR + (4) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; CmkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (7) ARG + (3) ASP + (6) ASN + (7) CYS + (4) GLN + (3) GLU + (7) GLY + (3) HIS + (4) ILE + (12) LEU + (2) LYS + (2) MET + (1) PHE + (7) PRO + (7) SER + (7) THR + (4) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; CmkProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Eno</t>
@@ -7981,7 +7981,7 @@
     <t>Translation (Enolase)</t>
   </si>
   <si>
-    <t>[c]: (7) ALA + (8) ARG + (1) ASP + (5) ASN + (4) CYS + (5) GLN + (5) GLU + (4) GLY + (3) HIS + (5) ILE + (8) LEU + (4) LYS + (3) MET + (3) PHE + (8) PRO + (9) SER + (8) THR + (3) TRP + (4) TYR + (3) VAL + (203) GTP + (104) H2O ==&gt; EnoProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (7) ALA + (8) ARG + (1) ASP + (5) ASN + (4) CYS + (5) GLN + (5) GLU + (4) GLY + (3) HIS + (5) ILE + (8) LEU + (4) LYS + (3) MET + (3) PHE + (8) PRO + (9) SER + (8) THR + (3) TRP + (4) TYR + (3) VAL + (203) GTP + (104) H2O ==&gt; EnoProtein + (203) GDP + (203) PI + (185) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Fba</t>
@@ -7990,7 +7990,7 @@
     <t>Translation (Fructose_biphosphate aldolase)</t>
   </si>
   <si>
-    <t>[c]: (4) ALA + (13) ARG + (3) ASP + (1) ASN + (4) CYS + (5) GLN + (0) GLU + (6) GLY + (1) HIS + (4) ILE + (10) LEU + (2) LYS + (1) MET + (5) PHE + (9) PRO + (11) SER + (6) THR + (2) TRP + (2) TYR + (11) VAL + (203) GTP + (104) H2O ==&gt; FbaProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (4) ALA + (13) ARG + (3) ASP + (1) ASN + (4) CYS + (5) GLN + (0) GLU + (6) GLY + (1) HIS + (4) ILE + (10) LEU + (2) LYS + (1) MET + (5) PHE + (9) PRO + (11) SER + (6) THR + (2) TRP + (2) TYR + (11) VAL + (203) GTP + (104) H2O ==&gt; FbaProtein + (203) GDP + (203) PI + (193) H + (3) H2O</t>
   </si>
   <si>
     <t>Translation_Gap</t>
@@ -7999,7 +7999,7 @@
     <t>Translation (Glyceraldehyde_3_phosphate_dehydrogenase)</t>
   </si>
   <si>
-    <t>[c]: (7) ALA + (9) ARG + (3) ASP + (1) ASN + (4) CYS + (5) GLN + (1) GLU + (6) GLY + (6) HIS + (6) ILE + (10) LEU + (2) LYS + (4) MET + (3) PHE + (4) PRO + (7) SER + (9) THR + (4) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; GapProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (7) ALA + (9) ARG + (3) ASP + (1) ASN + (4) CYS + (5) GLN + (1) GLU + (6) GLY + (6) HIS + (6) ILE + (10) LEU + (2) LYS + (4) MET + (3) PHE + (4) PRO + (7) SER + (9) THR + (4) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; GapProtein + (203) GDP + (203) PI + (190) H + (4) H2O</t>
   </si>
   <si>
     <t>Translation_Gk</t>
@@ -8008,7 +8008,7 @@
     <t>Translation (Guanylate kinase)</t>
   </si>
   <si>
-    <t>[c]: (4) ALA + (2) ARG + (3) ASP + (3) ASN + (7) CYS + (5) GLN + (3) GLU + (8) GLY + (1) HIS + (3) ILE + (9) LEU + (3) LYS + (2) MET + (3) PHE + (11) PRO + (13) SER + (7) THR + (4) TRP + (1) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; GkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (4) ALA + (2) ARG + (3) ASP + (3) ASN + (7) CYS + (5) GLN + (3) GLU + (8) GLY + (1) HIS + (3) ILE + (9) LEU + (3) LYS + (2) MET + (3) PHE + (11) PRO + (13) SER + (7) THR + (4) TRP + (1) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; GkProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Hpt</t>
@@ -8017,7 +8017,7 @@
     <t>Translation (Hypoxanthine_guanine phosphoribosyltransferase)</t>
   </si>
   <si>
-    <t>[c]: (11) ALA + (9) ARG + (3) ASP + (1) ASN + (3) CYS + (3) GLN + (6) GLU + (6) GLY + (2) HIS + (3) ILE + (8) LEU + (2) LYS + (7) MET + (3) PHE + (9) PRO + (9) SER + (3) THR + (2) TRP + (5) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; HptProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (11) ALA + (9) ARG + (3) ASP + (1) ASN + (3) CYS + (3) GLN + (6) GLU + (6) GLY + (2) HIS + (3) ILE + (8) LEU + (2) LYS + (7) MET + (3) PHE + (9) PRO + (9) SER + (3) THR + (2) TRP + (5) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; HptProtein + (203) GDP + (203) PI + (175) H + (9) H2O</t>
   </si>
   <si>
     <t>Translation_LacA</t>
@@ -8026,7 +8026,7 @@
     <t>Translation (Probable ribose_5_phosphate isomerase B )</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (4) ARG + (5) ASP + (6) ASN + (1) CYS + (2) GLN + (4) GLU + (9) GLY + (4) HIS + (8) ILE + (10) LEU + (3) LYS + (2) MET + (4) PHE + (5) PRO + (7) SER + (9) THR + (2) TRP + (1) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; LacAProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (4) ARG + (5) ASP + (6) ASN + (1) CYS + (2) GLN + (4) GLU + (9) GLY + (4) HIS + (8) ILE + (10) LEU + (3) LYS + (2) MET + (4) PHE + (5) PRO + (7) SER + (9) THR + (2) TRP + (1) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; LacAProtein + (203) GDP + (203) PI + (175) H + (9) H2O</t>
   </si>
   <si>
     <t>Translation_Ldh</t>
@@ -8035,7 +8035,7 @@
     <t>Translation (L_lactate dehydrogenase)</t>
   </si>
   <si>
-    <t>[c]: (3) ALA + (7) ARG + (5) ASP + (2) ASN + (2) CYS + (4) GLN + (4) GLU + (8) GLY + (1) HIS + (5) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (9) PRO + (8) SER + (8) THR + (3) TRP + (4) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; LdhProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (3) ALA + (7) ARG + (5) ASP + (2) ASN + (2) CYS + (4) GLN + (4) GLU + (8) GLY + (1) HIS + (5) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (9) PRO + (8) SER + (8) THR + (3) TRP + (4) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; LdhProtein + (203) GDP + (203) PI + (175) H + (9) H2O</t>
   </si>
   <si>
     <t>Translation_Nox</t>
@@ -8044,7 +8044,7 @@
     <t>Translation (Probable NADH oxidase)</t>
   </si>
   <si>
-    <t>[c]: (11) ALA + (7) ARG + (7) ASP + (1) ASN + (0) CYS + (2) GLN + (5) GLU + (8) GLY + (1) HIS + (7) ILE + (10) LEU + (1) LYS + (3) MET + (6) PHE + (4) PRO + (10) SER + (6) THR + (4) TRP + (3) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; NoxProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (11) ALA + (7) ARG + (7) ASP + (1) ASN + (0) CYS + (2) GLN + (5) GLU + (8) GLY + (1) HIS + (7) ILE + (10) LEU + (1) LYS + (3) MET + (6) PHE + (4) PRO + (10) SER + (6) THR + (4) TRP + (3) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; NoxProtein + (203) GDP + (203) PI + (166) H + (12) H2O</t>
   </si>
   <si>
     <t>Translation_PeptAbcTransporter</t>
@@ -8053,7 +8053,7 @@
     <t>Translation (Peptide ABC transporter)</t>
   </si>
   <si>
-    <t>[c]: (3) ALA + (8) ARG + (0) ASP + (6) ASN + (1) CYS + (8) GLN + (3) GLU + (11) GLY + (3) HIS + (3) ILE + (10) LEU + (1) LYS + (1) MET + (5) PHE + (4) PRO + (10) SER + (4) THR + (3) TRP + (4) TYR + (12) VAL + (203) GTP + (104) H2O ==&gt; PeptAbcTransporterProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (3) ALA + (8) ARG + (0) ASP + (6) ASN + (1) CYS + (8) GLN + (3) GLU + (11) GLY + (3) HIS + (3) ILE + (10) LEU + (1) LYS + (1) MET + (5) PHE + (4) PRO + (10) SER + (4) THR + (3) TRP + (4) TYR + (12) VAL + (203) GTP + (104) H2O ==&gt; PeptAbcTransporterProtein + (203) GDP + (203) PI + (193) H + (3) H2O</t>
   </si>
   <si>
     <t>Translation_Pfk</t>
@@ -8062,7 +8062,7 @@
     <t>Translation (6_phosphofructokinase /Phosphohexokinase)</t>
   </si>
   <si>
-    <t>[c]: (4) ALA + (10) ARG + (4) ASP + (2) ASN + (2) CYS + (6) GLN + (2) GLU + (7) GLY + (2) HIS + (7) ILE + (9) LEU + (2) LYS + (1) MET + (5) PHE + (1) PRO + (16) SER + (7) THR + (4) TRP + (3) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; PfkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (4) ALA + (10) ARG + (4) ASP + (2) ASN + (2) CYS + (6) GLN + (2) GLU + (7) GLY + (2) HIS + (7) ILE + (9) LEU + (2) LYS + (1) MET + (5) PHE + (1) PRO + (16) SER + (7) THR + (4) TRP + (3) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; PfkProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_PgiB</t>
@@ -8071,7 +8071,7 @@
     <t>Translation (Glucose_6_phosphate isomerase )</t>
   </si>
   <si>
-    <t>[c]: (10) ALA + (12) ARG + (3) ASP + (3) ASN + (2) CYS + (5) GLN + (3) GLU + (8) GLY + (3) HIS + (6) ILE + (6) LEU + (2) LYS + (2) MET + (2) PHE + (7) PRO + (9) SER + (7) THR + (2) TRP + (4) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; PgiBProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (10) ALA + (12) ARG + (3) ASP + (3) ASN + (2) CYS + (5) GLN + (3) GLU + (8) GLY + (3) HIS + (6) ILE + (6) LEU + (2) LYS + (2) MET + (2) PHE + (7) PRO + (9) SER + (7) THR + (2) TRP + (4) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; PgiBProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Pgk</t>
@@ -8080,7 +8080,7 @@
     <t>Translation (Phosphoglycerate kinase)</t>
   </si>
   <si>
-    <t>[c]: (6) ALA + (10) ARG + (3) ASP + (5) ASN + (3) CYS + (3) GLN + (0) GLU + (7) GLY + (4) HIS + (5) ILE + (9) LEU + (1) LYS + (1) MET + (3) PHE + (8) PRO + (13) SER + (8) THR + (2) TRP + (0) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; PgkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (6) ALA + (10) ARG + (3) ASP + (5) ASN + (3) CYS + (3) GLN + (0) GLU + (7) GLY + (4) HIS + (5) ILE + (9) LEU + (1) LYS + (1) MET + (3) PHE + (8) PRO + (13) SER + (8) THR + (2) TRP + (0) TYR + (9) VAL + (203) GTP + (104) H2O ==&gt; PgkProtein + (203) GDP + (203) PI + (193) H + (3) H2O</t>
   </si>
   <si>
     <t>Translation_Pgm</t>
@@ -8089,7 +8089,7 @@
     <t>Translation (2,3_bisphosphoglycerate_independent phosphoglycerate mutase )</t>
   </si>
   <si>
-    <t>[c]: (6) ALA + (9) ARG + (2) ASP + (6) ASN + (1) CYS + (2) GLN + (4) GLU + (5) GLY + (4) HIS + (4) ILE + (9) LEU + (2) LYS + (2) MET + (6) PHE + (9) PRO + (10) SER + (6) THR + (2) TRP + (4) TYR + (7) VAL + (203) GTP + (104) H2O ==&gt; PgmProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (6) ALA + (9) ARG + (2) ASP + (6) ASN + (1) CYS + (2) GLN + (4) GLU + (5) GLY + (4) HIS + (4) ILE + (9) LEU + (2) LYS + (2) MET + (6) PHE + (9) PRO + (10) SER + (6) THR + (2) TRP + (4) TYR + (7) VAL + (203) GTP + (104) H2O ==&gt; PgmProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_PiAbcTransporter</t>
@@ -8098,7 +8098,7 @@
     <t>Translation (Phosphate ABC transporter)</t>
   </si>
   <si>
-    <t>[c]: (18) ALA + (8) ARG + (5) ASP + (1) ASN + (2) CYS + (3) GLN + (3) GLU + (4) GLY + (3) HIS + (6) ILE + (7) LEU + (3) LYS + (2) MET + (2) PHE + (4) PRO + (13) SER + (5) THR + (2) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PiAbcTransporterProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (18) ALA + (8) ARG + (5) ASP + (1) ASN + (2) CYS + (3) GLN + (3) GLU + (4) GLY + (3) HIS + (6) ILE + (7) LEU + (3) LYS + (2) MET + (2) PHE + (4) PRO + (13) SER + (5) THR + (2) TRP + (4) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PiAbcTransporterProtein + (203) GDP + (203) PI + (179) H + (8) H2O</t>
   </si>
   <si>
     <t>Translation_Ppa</t>
@@ -8107,7 +8107,7 @@
     <t>Translation (Inorganic pyrophosphatase )</t>
   </si>
   <si>
-    <t>[c]: (4) ALA + (9) ARG + (2) ASP + (3) ASN + (1) CYS + (7) GLN + (3) GLU + (3) GLY + (2) HIS + (6) ILE + (9) LEU + (5) LYS + (3) MET + (4) PHE + (7) PRO + (15) SER + (6) THR + (5) TRP + (2) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; PpaProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (4) ALA + (9) ARG + (2) ASP + (3) ASN + (1) CYS + (7) GLN + (3) GLU + (3) GLY + (2) HIS + (6) ILE + (9) LEU + (5) LYS + (3) MET + (4) PHE + (7) PRO + (15) SER + (6) THR + (5) TRP + (2) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; PpaProtein + (203) GDP + (203) PI + (187) H + (5) H2O</t>
   </si>
   <si>
     <t>Translation_Prs</t>
@@ -8116,7 +8116,7 @@
     <t>Translation (Ribose_phosphate pyrophosphokinase )</t>
   </si>
   <si>
-    <t>[c]: (10) ALA + (11) ARG + (0) ASP + (5) ASN + (4) CYS + (3) GLN + (2) GLU + (5) GLY + (2) HIS + (7) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (8) PRO + (14) SER + (1) THR + (3) TRP + (2) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PrsProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (10) ALA + (11) ARG + (0) ASP + (5) ASN + (4) CYS + (3) GLN + (2) GLU + (5) GLY + (2) HIS + (7) ILE + (11) LEU + (2) LYS + (3) MET + (2) PHE + (8) PRO + (14) SER + (1) THR + (3) TRP + (2) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PrsProtein + (203) GDP + (203) PI + (196) H + (2) H2O</t>
   </si>
   <si>
     <t>Translation_Pts</t>
@@ -8125,7 +8125,7 @@
     <t>Translation (PTS EIIABC (glucose))</t>
   </si>
   <si>
-    <t>[c]: (10) ALA + (8) ARG + (4) ASP + (4) ASN + (3) CYS + (5) GLN + (4) GLU + (6) GLY + (5) HIS + (4) ILE + (10) LEU + (1) LYS + (2) MET + (4) PHE + (5) PRO + (8) SER + (9) THR + (0) TRP + (3) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PtsProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (10) ALA + (8) ARG + (4) ASP + (4) ASN + (3) CYS + (5) GLN + (4) GLU + (6) GLY + (5) HIS + (4) ILE + (10) LEU + (1) LYS + (2) MET + (4) PHE + (5) PRO + (8) SER + (9) THR + (0) TRP + (3) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; PtsProtein + (203) GDP + (203) PI + (178) H + (8) H2O</t>
   </si>
   <si>
     <t>Translation_Pyk</t>
@@ -8134,7 +8134,7 @@
     <t>Translation (Pyruvate kinase)</t>
   </si>
   <si>
-    <t>[c]: (9) ALA + (8) ARG + (2) ASP + (2) ASN + (2) CYS + (2) GLN + (2) GLU + (3) GLY + (2) HIS + (4) ILE + (9) LEU + (9) LYS + (3) MET + (4) PHE + (9) PRO + (6) SER + (9) THR + (0) TRP + (4) TYR + (11) VAL + (203) GTP + (104) H2O ==&gt; PykProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (9) ALA + (8) ARG + (2) ASP + (2) ASN + (2) CYS + (2) GLN + (2) GLU + (3) GLY + (2) HIS + (4) ILE + (9) LEU + (9) LYS + (3) MET + (4) PHE + (9) PRO + (6) SER + (9) THR + (0) TRP + (4) TYR + (11) VAL + (203) GTP + (104) H2O ==&gt; PykProtein + (203) GDP + (203) PI + (190) H + (4) H2O</t>
   </si>
   <si>
     <t>Translation_PyrH</t>
@@ -8143,7 +8143,7 @@
     <t>Translation (Uridylate kinase )</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (11) ARG + (3) ASP + (3) ASN + (2) CYS + (1) GLN + (3) GLU + (3) GLY + (2) HIS + (9) ILE + (10) LEU + (3) LYS + (2) MET + (3) PHE + (8) PRO + (14) SER + (9) THR + (1) TRP + (2) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; PyrHProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (11) ARG + (3) ASP + (3) ASN + (2) CYS + (1) GLN + (3) GLU + (3) GLY + (2) HIS + (9) ILE + (10) LEU + (3) LYS + (2) MET + (3) PHE + (8) PRO + (14) SER + (9) THR + (1) TRP + (2) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; PyrHProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Ribosome</t>
@@ -8152,7 +8152,7 @@
     <t>Translation (Ribosome)</t>
   </si>
   <si>
-    <t>[c]: (7) ALA + (10) ARG + (3) ASP + (4) ASN + (3) CYS + (3) GLN + (1) GLU + (6) GLY + (1) HIS + (8) ILE + (9) LEU + (3) LYS + (2) MET + (6) PHE + (10) PRO + (7) SER + (9) THR + (3) TRP + (0) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; RibosomeProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (7) ALA + (10) ARG + (3) ASP + (4) ASN + (3) CYS + (3) GLN + (1) GLU + (6) GLY + (1) HIS + (8) ILE + (9) LEU + (3) LYS + (2) MET + (6) PHE + (10) PRO + (7) SER + (9) THR + (3) TRP + (0) TYR + (5) VAL + (203) GTP + (104) H2O ==&gt; RibosomeProtein + (203) GDP + (203) PI + (190) H + (4) H2O</t>
   </si>
   <si>
     <t>Translation_RnaPolymerase</t>
@@ -8161,7 +8161,7 @@
     <t>Translation (RNA polymerase)</t>
   </si>
   <si>
-    <t>[c]: (2) ALA + (11) ARG + (4) ASP + (2) ASN + (3) CYS + (1) GLN + (4) GLU + (1) GLY + (4) HIS + (7) ILE + (8) LEU + (4) LYS + (3) MET + (2) PHE + (9) PRO + (4) SER + (6) THR + (3) TRP + (7) TYR + (15) VAL + (203) GTP + (104) H2O ==&gt; RnaPolymeraseProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (2) ALA + (11) ARG + (4) ASP + (2) ASN + (3) CYS + (1) GLN + (4) GLU + (1) GLY + (4) HIS + (7) ILE + (8) LEU + (4) LYS + (3) MET + (2) PHE + (9) PRO + (4) SER + (6) THR + (3) TRP + (7) TYR + (15) VAL + (203) GTP + (104) H2O ==&gt; RnaPolymeraseProtein + (203) GDP + (203) PI + (178) H + (8) H2O</t>
   </si>
   <si>
     <t>Translation_Rnase</t>
@@ -8170,7 +8170,7 @@
     <t>Translation (RNase)</t>
   </si>
   <si>
-    <t>[c]: (10) ALA + (11) ARG + (4) ASP + (2) ASN + (2) CYS + (3) GLN + (6) GLU + (3) GLY + (0) HIS + (3) ILE + (9) LEU + (0) LYS + (4) MET + (2) PHE + (9) PRO + (10) SER + (8) THR + (7) TRP + (0) TYR + (7) VAL + (203) GTP + (104) H2O ==&gt; RnaseProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (10) ALA + (11) ARG + (4) ASP + (2) ASN + (2) CYS + (3) GLN + (6) GLU + (3) GLY + (0) HIS + (3) ILE + (9) LEU + (0) LYS + (4) MET + (2) PHE + (9) PRO + (10) SER + (8) THR + (7) TRP + (0) TYR + (7) VAL + (203) GTP + (104) H2O ==&gt; RnaseProtein + (203) GDP + (203) PI + (172) H + (10) H2O</t>
   </si>
   <si>
     <t>Translation_Rpe</t>
@@ -8179,7 +8179,7 @@
     <t>Translation (Probable ribulose_phosphate 3_epimerase)</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (12) ARG + (5) ASP + (5) ASN + (1) CYS + (5) GLN + (2) GLU + (3) GLY + (2) HIS + (4) ILE + (8) LEU + (4) LYS + (3) MET + (1) PHE + (7) PRO + (9) SER + (13) THR + (5) TRP + (0) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; RpeProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (12) ARG + (5) ASP + (5) ASN + (1) CYS + (5) GLN + (2) GLU + (3) GLY + (2) HIS + (4) ILE + (8) LEU + (4) LYS + (3) MET + (1) PHE + (7) PRO + (9) SER + (13) THR + (5) TRP + (0) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; RpeProtein + (203) GDP + (203) PI + (181) H + (7) H2O</t>
   </si>
   <si>
     <t>Translation_Tim</t>
@@ -8188,7 +8188,7 @@
     <t>Translation (Triosephosphate isomerase )</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (11) ARG + (3) ASP + (1) ASN + (6) CYS + (5) GLN + (3) GLU + (6) GLY + (2) HIS + (6) ILE + (10) LEU + (0) LYS + (2) MET + (4) PHE + (3) PRO + (10) SER + (9) THR + (5) TRP + (1) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; TimProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (11) ARG + (3) ASP + (1) ASN + (6) CYS + (5) GLN + (3) GLU + (6) GLY + (2) HIS + (6) ILE + (10) LEU + (0) LYS + (2) MET + (4) PHE + (3) PRO + (10) SER + (9) THR + (5) TRP + (1) TYR + (8) VAL + (203) GTP + (104) H2O ==&gt; TimProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_TklB</t>
@@ -8197,7 +8197,7 @@
     <t>Translation (Transketolase )</t>
   </si>
   <si>
-    <t>[c]: (9) ALA + (9) ARG + (6) ASP + (4) ASN + (0) CYS + (1) GLN + (2) GLU + (7) GLY + (3) HIS + (3) ILE + (9) LEU + (4) LYS + (1) MET + (2) PHE + (8) PRO + (14) SER + (9) THR + (3) TRP + (2) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; TklBProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (9) ALA + (9) ARG + (6) ASP + (4) ASN + (0) CYS + (1) GLN + (2) GLU + (7) GLY + (3) HIS + (3) ILE + (9) LEU + (4) LYS + (1) MET + (2) PHE + (8) PRO + (14) SER + (9) THR + (3) TRP + (2) TYR + (4) VAL + (203) GTP + (104) H2O ==&gt; TklBProtein + (203) GDP + (203) PI + (178) H + (8) H2O</t>
   </si>
   <si>
     <t>Translation_Udk</t>
@@ -8206,7 +8206,7 @@
     <t>Translation (Uridine kinase)</t>
   </si>
   <si>
-    <t>[c]: (9) ALA + (5) ARG + (5) ASP + (2) ASN + (3) CYS + (5) GLN + (1) GLU + (10) GLY + (3) HIS + (8) ILE + (6) LEU + (6) LYS + (5) MET + (3) PHE + (3) PRO + (9) SER + (7) THR + (1) TRP + (3) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; UdkProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (9) ALA + (5) ARG + (5) ASP + (2) ASN + (3) CYS + (5) GLN + (1) GLU + (10) GLY + (3) HIS + (8) ILE + (6) LEU + (6) LYS + (5) MET + (3) PHE + (3) PRO + (9) SER + (7) THR + (1) TRP + (3) TYR + (6) VAL + (203) GTP + (104) H2O ==&gt; UdkProtein + (203) GDP + (203) PI + (184) H + (6) H2O</t>
   </si>
   <si>
     <t>Translation_Upp</t>
@@ -8215,7 +8215,7 @@
     <t>Translation (Uracil phosphoribosyltransferase )</t>
   </si>
   <si>
-    <t>[c]: (5) ALA + (8) ARG + (5) ASP + (3) ASN + (2) CYS + (2) GLN + (3) GLU + (5) GLY + (4) HIS + (4) ILE + (8) LEU + (5) LYS + (2) MET + (3) PHE + (12) PRO + (15) SER + (6) THR + (2) TRP + (3) TYR + (3) VAL + (203) GTP + (104) H2O ==&gt; UppProtein + (200) GDP + (200) PI + (200) H</t>
+    <t>[c]: (5) ALA + (8) ARG + (5) ASP + (3) ASN + (2) CYS + (2) GLN + (3) GLU + (5) GLY + (4) HIS + (4) ILE + (8) LEU + (5) LYS + (2) MET + (3) PHE + (12) PRO + (15) SER + (6) THR + (2) TRP + (3) TYR + (3) VAL + (203) GTP + (104) H2O ==&gt; UppProtein + (203) GDP + (203) PI + (178) H + (8) H2O</t>
   </si>
   <si>
     <t>RnaDegradation_Adk</t>
@@ -10616,15 +10616,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11534,14 +11534,14 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="3"/>
@@ -11551,14 +11551,14 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="3"/>
@@ -11689,12 +11689,12 @@
   <sheetPr/>
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -14167,7 +14167,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:6">
+    <row r="119" customHeight="1" spans="1:7">
       <c r="A119" t="s">
         <v>1336</v>
       </c>
@@ -14186,6 +14186,7 @@
       <c r="F119" t="s">
         <v>993</v>
       </c>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" customHeight="1" spans="1:6">
       <c r="A120" t="s">
@@ -23316,12 +23317,12 @@
   <sheetPr/>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -23434,13 +23435,13 @@
         <v>115</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>135.126</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -23466,13 +23467,13 @@
         <v>115</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>424.177</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>-3</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -23498,13 +23499,13 @@
         <v>115</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>89.0929</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -23530,13 +23531,13 @@
         <v>115</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>160.171</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -23562,13 +23563,13 @@
         <v>115</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>345.205</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>-2</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -23594,13 +23595,13 @@
         <v>115</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>175.208</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -23626,13 +23627,13 @@
         <v>115</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>332.401</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>2</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -23658,13 +23659,13 @@
         <v>115</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>132.118</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
@@ -23690,13 +23691,13 @@
         <v>115</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="19">
-        <v>262.222</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="17">
+        <v>246.223</v>
+      </c>
+      <c r="H12" s="17">
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -23722,13 +23723,13 @@
         <v>115</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>132.094</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>-1</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -23753,13 +23754,13 @@
       <c r="D14" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>246.174</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>-2</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -23779,13 +23780,13 @@
       <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>503.149</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>-4</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -23805,13 +23806,13 @@
       <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>400.152</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>-3</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -23831,13 +23832,13 @@
       <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>321.18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>-2</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -23857,13 +23858,13 @@
       <c r="D18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>44.0095</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -23883,13 +23884,13 @@
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>479.124</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>-4</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -23909,13 +23910,13 @@
       <c r="D20" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>121.158</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
@@ -23935,13 +23936,13 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>224.301</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>0</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -23961,13 +23962,13 @@
       <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>243.216</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>0</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -23987,13 +23988,13 @@
       <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="17">
         <v>262.005</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>-4</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -24013,13 +24014,13 @@
       <c r="D24" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <v>198.068</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>-2</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -24039,13 +24040,13 @@
       <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>258.12</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>-2</v>
       </c>
       <c r="I25" s="13" t="s">
@@ -24065,13 +24066,13 @@
       <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="17">
         <v>336.084</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="17">
         <v>-4</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -24091,13 +24092,13 @@
       <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="17">
         <v>183.033</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="17">
         <v>-3</v>
       </c>
       <c r="I27" s="13" t="s">
@@ -24117,13 +24118,13 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>183.033</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="17">
         <v>-3</v>
       </c>
       <c r="I28" s="13" t="s">
@@ -24143,13 +24144,13 @@
       <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>258.12</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <v>-2</v>
       </c>
       <c r="I29" s="13" t="s">
@@ -24169,13 +24170,13 @@
       <c r="D30" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>440.176</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <v>-3</v>
       </c>
       <c r="I30" s="13" t="s">
@@ -24195,13 +24196,13 @@
       <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="17">
         <v>180.155</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <v>0</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -24221,13 +24222,13 @@
       <c r="D32" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>146.144</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="13" t="s">
@@ -24247,13 +24248,13 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <v>274.273</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <v>0</v>
       </c>
       <c r="I33" s="13" t="s">
@@ -24273,13 +24274,13 @@
       <c r="D34" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>146.121</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>-1</v>
       </c>
       <c r="I34" s="13" t="s">
@@ -24299,13 +24300,13 @@
       <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>274.227</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>-2</v>
       </c>
       <c r="I35" s="13" t="s">
@@ -24325,13 +24326,13 @@
       <c r="D36" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>75.0664</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>0</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -24351,13 +24352,13 @@
       <c r="D37" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="17">
         <v>132.118</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="17">
         <v>0</v>
       </c>
       <c r="I37" s="13" t="s">
@@ -24377,13 +24378,13 @@
       <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>361.204</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="17">
         <v>-2</v>
       </c>
       <c r="I38" s="13" t="s">
@@ -24403,13 +24404,13 @@
       <c r="D39" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="17">
         <v>151.126</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>0</v>
       </c>
       <c r="I39" s="13" t="s">
@@ -24429,13 +24430,13 @@
       <c r="D40" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="17">
         <v>519.148</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="17">
         <v>-4</v>
       </c>
       <c r="I40" s="13" t="s">
@@ -24455,13 +24456,13 @@
       <c r="D41" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="17">
         <v>1.0079</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="17">
         <v>1</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -24481,13 +24482,13 @@
       <c r="D42" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="17">
         <v>18.0152</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="17">
         <v>0</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -24507,13 +24508,13 @@
       <c r="D43" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="17">
         <v>155.154</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="17">
         <v>0</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -24533,13 +24534,13 @@
       <c r="D44" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="17">
         <v>292.293</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="17">
         <v>0</v>
       </c>
       <c r="I44" s="13" t="s">
@@ -24559,13 +24560,13 @@
       <c r="D45" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="17">
         <v>131.172</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="17">
         <v>0</v>
       </c>
       <c r="I45" s="13" t="s">
@@ -24585,13 +24586,13 @@
       <c r="D46" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="17">
         <v>244.33</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="17">
         <v>0</v>
       </c>
       <c r="I46" s="13" t="s">
@@ -24611,13 +24612,13 @@
       <c r="D47" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="17">
         <v>89.0698</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="17">
         <v>-1</v>
       </c>
       <c r="I47" s="13" t="s">
@@ -24637,13 +24638,13 @@
       <c r="D48" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="17">
         <v>131.172</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="17">
         <v>0</v>
       </c>
       <c r="I48" s="13" t="s">
@@ -24663,13 +24664,13 @@
       <c r="D49" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="17">
         <v>244.33</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="17">
         <v>0</v>
       </c>
       <c r="I49" s="13" t="s">
@@ -24689,13 +24690,13 @@
       <c r="D50" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="17">
         <v>147.195</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="17">
         <v>1</v>
       </c>
       <c r="I50" s="13" t="s">
@@ -24715,13 +24716,13 @@
       <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="17">
         <v>276.375</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="17">
         <v>2</v>
       </c>
       <c r="I51" s="13" t="s">
@@ -24741,13 +24742,13 @@
       <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="17">
         <v>149.211</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="17">
         <v>0</v>
       </c>
       <c r="I52" s="13" t="s">
@@ -24767,13 +24768,13 @@
       <c r="D53" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="17">
         <v>280.407</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="17">
         <v>0</v>
       </c>
       <c r="I53" s="13" t="s">
@@ -24793,13 +24794,13 @@
       <c r="D54" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="17">
         <v>662.416</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="17">
         <v>-1</v>
       </c>
       <c r="I54" s="13" t="s">
@@ -24819,13 +24820,13 @@
       <c r="D55" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="17">
         <v>663.424</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="17">
         <v>-2</v>
       </c>
       <c r="I55" s="13" t="s">
@@ -24845,13 +24846,13 @@
       <c r="D56" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="17">
         <v>31.9988</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="17">
         <v>0</v>
       </c>
       <c r="I56" s="13" t="s">
@@ -24871,13 +24872,13 @@
       <c r="D57" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="17">
         <v>165.018</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="17">
         <v>-3</v>
       </c>
       <c r="I57" s="13" t="s">
@@ -24897,13 +24898,13 @@
       <c r="D58" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="17">
         <v>165.189</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="17">
         <v>0</v>
       </c>
       <c r="I58" s="13" t="s">
@@ -24923,13 +24924,13 @@
       <c r="D59" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="17">
         <v>312.362</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="17">
         <v>0</v>
       </c>
       <c r="I59" s="13" t="s">
@@ -24949,13 +24950,13 @@
       <c r="D60" t="s">
         <v>115</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="17">
         <v>95.9793</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="17">
         <v>-2</v>
       </c>
       <c r="I60" s="13" t="s">
@@ -24975,13 +24976,13 @@
       <c r="D61" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="17">
         <v>173.940523996</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="17">
         <v>-4</v>
       </c>
       <c r="I61" s="13" t="s">
@@ -25001,13 +25002,13 @@
       <c r="D62" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="17">
         <v>115.13</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="17">
         <v>0</v>
       </c>
       <c r="I62" s="13" t="s">
@@ -25027,13 +25028,13 @@
       <c r="D63" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="17">
         <v>212.245</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H63" s="17">
         <v>0</v>
       </c>
       <c r="I63" s="13" t="s">
@@ -25053,13 +25054,13 @@
       <c r="D64" t="s">
         <v>115</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="17">
         <v>385.03</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64" s="17">
         <v>-5</v>
       </c>
       <c r="I64" s="13" t="s">
@@ -25079,13 +25080,13 @@
       <c r="D65" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="17">
         <v>87.054</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="17">
         <v>-1</v>
       </c>
       <c r="I65" s="13" t="s">
@@ -25105,13 +25106,13 @@
       <c r="D66" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="17">
         <v>228.094</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="17">
         <v>-2</v>
       </c>
       <c r="I66" s="13" t="s">
@@ -25131,13 +25132,13 @@
       <c r="D67" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="17">
         <v>228.094</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H67" s="17">
         <v>-2</v>
       </c>
       <c r="I67" s="13" t="s">
@@ -25157,13 +25158,13 @@
       <c r="D68" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="17">
         <v>288.145</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="17">
         <v>-2</v>
       </c>
       <c r="I68" s="13" t="s">
@@ -25183,13 +25184,13 @@
       <c r="D69" t="s">
         <v>115</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="17">
         <v>105.092</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="17">
         <v>0</v>
       </c>
       <c r="I69" s="13" t="s">
@@ -25209,13 +25210,13 @@
       <c r="D70" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="17">
         <v>192.169</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="17">
         <v>0</v>
       </c>
       <c r="I70" s="13" t="s">
@@ -25235,13 +25236,13 @@
       <c r="D71" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="17">
         <v>168.042</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="17">
         <v>-2</v>
       </c>
       <c r="I71" s="13" t="s">
@@ -25261,13 +25262,13 @@
       <c r="D72" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="17">
         <v>168.042</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="17">
         <v>-2</v>
       </c>
       <c r="I72" s="13" t="s">
@@ -25287,13 +25288,13 @@
       <c r="D73" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="17">
         <v>119.119</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H73" s="17">
         <v>0</v>
       </c>
       <c r="I73" s="13" t="s">
@@ -25313,13 +25314,13 @@
       <c r="D74" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="17">
         <v>220.222</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="17">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
@@ -25339,13 +25340,13 @@
       <c r="D75" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F75" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="17">
         <v>204.225</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="17">
         <v>0</v>
       </c>
       <c r="I75" s="13" t="s">
@@ -25365,13 +25366,13 @@
       <c r="D76" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76" s="17">
         <v>390.434</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="17">
         <v>0</v>
       </c>
       <c r="I76" s="13" t="s">
@@ -25391,13 +25392,13 @@
       <c r="D77" t="s">
         <v>115</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77" s="17">
         <v>181.188</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="17">
         <v>0</v>
       </c>
       <c r="I77" s="13" t="s">
@@ -25417,13 +25418,13 @@
       <c r="D78" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="17">
         <v>344.361</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="17">
         <v>0</v>
       </c>
       <c r="I78" s="13" t="s">
@@ -25443,13 +25444,13 @@
       <c r="D79" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="17">
         <v>401.137</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="17">
         <v>-3</v>
       </c>
       <c r="I79" s="13" t="s">
@@ -25469,13 +25470,13 @@
       <c r="D80" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="17">
         <v>322.165</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="17">
         <v>-2</v>
       </c>
       <c r="I80" s="13" t="s">
@@ -25495,13 +25496,13 @@
       <c r="D81" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="17">
         <v>112.087</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H81" s="17">
         <v>0</v>
       </c>
       <c r="I81" s="13" t="s">
@@ -25521,13 +25522,13 @@
       <c r="D82" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F82" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82" s="17">
         <v>244.201</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="17">
         <v>0</v>
       </c>
       <c r="I82" s="13" t="s">
@@ -25547,13 +25548,13 @@
       <c r="D83" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="17">
         <v>480.109</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="17">
         <v>-4</v>
       </c>
       <c r="I83" s="13" t="s">
@@ -25573,13 +25574,13 @@
       <c r="D84" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="17">
         <v>117.146</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="17">
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
@@ -25599,13 +25600,13 @@
       <c r="D85" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="17">
         <v>216.277</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="17">
         <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
@@ -25625,13 +25626,13 @@
       <c r="D86" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="17">
         <v>228.094</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="17">
         <v>-2</v>
       </c>
       <c r="I86" s="13" t="s">
@@ -25645,7 +25646,7 @@
       <c r="B87" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -25654,13 +25655,13 @@
       <c r="E87" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="F87" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="17">
         <v>97630.239885394</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87" s="17">
         <v>-304</v>
       </c>
       <c r="I87" s="13" t="s">
@@ -25674,7 +25675,7 @@
       <c r="B88" t="s">
         <v>428</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="17" t="s">
         <v>429</v>
       </c>
       <c r="D88" s="13" t="s">
@@ -25683,13 +25684,13 @@
       <c r="E88" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="17">
         <v>96600.9228853939</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88" s="17">
         <v>-304</v>
       </c>
       <c r="I88" s="13" t="s">
@@ -25703,7 +25704,7 @@
       <c r="B89" t="s">
         <v>432</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>433</v>
       </c>
       <c r="D89" s="13" t="s">
@@ -25712,13 +25713,13 @@
       <c r="E89" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="17">
         <v>97092.621885394</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="17">
         <v>-304</v>
       </c>
       <c r="I89" s="13" t="s">
@@ -25732,7 +25733,7 @@
       <c r="B90" t="s">
         <v>436</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="17" t="s">
         <v>437</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -25741,13 +25742,13 @@
       <c r="E90" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="17">
         <v>96913.6808853939</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="17">
         <v>-304</v>
       </c>
       <c r="I90" s="13" t="s">
@@ -25761,7 +25762,7 @@
       <c r="B91" t="s">
         <v>440</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="17" t="s">
         <v>441</v>
       </c>
       <c r="D91" s="13" t="s">
@@ -25770,13 +25771,13 @@
       <c r="E91" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="17">
         <v>97000.288885394</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="17">
         <v>-304</v>
       </c>
       <c r="I91" s="13" t="s">
@@ -25790,7 +25791,7 @@
       <c r="B92" t="s">
         <v>444</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="17" t="s">
         <v>445</v>
       </c>
       <c r="D92" s="13" t="s">
@@ -25799,13 +25800,13 @@
       <c r="E92" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="17">
         <v>96927.181885394</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="17">
         <v>-304</v>
       </c>
       <c r="I92" s="13" t="s">
@@ -25819,7 +25820,7 @@
       <c r="B93" t="s">
         <v>448</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="17" t="s">
         <v>449</v>
       </c>
       <c r="D93" s="13" t="s">
@@ -25828,13 +25829,13 @@
       <c r="E93" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="17">
         <v>96936.402885394</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="17">
         <v>-304</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -25848,7 +25849,7 @@
       <c r="B94" t="s">
         <v>452</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="17" t="s">
         <v>453</v>
       </c>
       <c r="D94" s="13" t="s">
@@ -25857,13 +25858,13 @@
       <c r="E94" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="17">
         <v>97473.755885394</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="17">
         <v>-304</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -25877,7 +25878,7 @@
       <c r="B95" t="s">
         <v>456</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="17" t="s">
         <v>457</v>
       </c>
       <c r="D95" s="13" t="s">
@@ -25886,13 +25887,13 @@
       <c r="E95" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="17">
         <v>97211.7678853939</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="17">
         <v>-304</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -25906,7 +25907,7 @@
       <c r="B96" t="s">
         <v>460</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="17" t="s">
         <v>461</v>
       </c>
       <c r="D96" s="13" t="s">
@@ -25915,13 +25916,13 @@
       <c r="E96" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="17">
         <v>97144.499885394</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="17">
         <v>-304</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -25935,7 +25936,7 @@
       <c r="B97" t="s">
         <v>464</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>465</v>
       </c>
       <c r="D97" s="13" t="s">
@@ -25944,13 +25945,13 @@
       <c r="E97" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="17">
         <v>97016.4528853939</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="17">
         <v>-304</v>
       </c>
       <c r="I97" s="13" t="s">
@@ -25964,7 +25965,7 @@
       <c r="B98" t="s">
         <v>468</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="17" t="s">
         <v>469</v>
       </c>
       <c r="D98" s="13" t="s">
@@ -25973,13 +25974,13 @@
       <c r="E98" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="17">
         <v>97070.353885394</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="17">
         <v>-304</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -25993,7 +25994,7 @@
       <c r="B99" t="s">
         <v>472</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="17" t="s">
         <v>473</v>
       </c>
       <c r="D99" s="13" t="s">
@@ -26002,13 +26003,13 @@
       <c r="E99" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="17">
         <v>96847.086885394</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99" s="17">
         <v>-304</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -26022,7 +26023,7 @@
       <c r="B100" t="s">
         <v>476</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="17" t="s">
         <v>477</v>
       </c>
       <c r="D100" s="13" t="s">
@@ -26031,13 +26032,13 @@
       <c r="E100" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100" s="17">
         <v>97453.046885394</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="17">
         <v>-304</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -26051,7 +26052,7 @@
       <c r="B101" t="s">
         <v>480</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="17" t="s">
         <v>481</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -26060,13 +26061,13 @@
       <c r="E101" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101" s="17">
         <v>96861.372885394</v>
       </c>
-      <c r="H101" s="19">
+      <c r="H101" s="17">
         <v>-304</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -26080,7 +26081,7 @@
       <c r="B102" t="s">
         <v>484</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="17" t="s">
         <v>485</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -26089,13 +26090,13 @@
       <c r="E102" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="G102" s="19">
+      <c r="G102" s="17">
         <v>96892.386885394</v>
       </c>
-      <c r="H102" s="19">
+      <c r="H102" s="17">
         <v>-304</v>
       </c>
       <c r="I102" s="13" t="s">
@@ -26109,7 +26110,7 @@
       <c r="B103" t="s">
         <v>488</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="17" t="s">
         <v>489</v>
       </c>
       <c r="D103" s="13" t="s">
@@ -26118,13 +26119,13 @@
       <c r="E103" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G103" s="17">
         <v>96986.467885394</v>
       </c>
-      <c r="H103" s="19">
+      <c r="H103" s="17">
         <v>-304</v>
       </c>
       <c r="I103" s="13" t="s">
@@ -26138,7 +26139,7 @@
       <c r="B104" t="s">
         <v>492</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="17" t="s">
         <v>493</v>
       </c>
       <c r="D104" s="13" t="s">
@@ -26147,13 +26148,13 @@
       <c r="E104" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F104" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104" s="17">
         <v>96886.492885394</v>
       </c>
-      <c r="H104" s="19">
+      <c r="H104" s="17">
         <v>-304</v>
       </c>
       <c r="I104" s="13" t="s">
@@ -26167,7 +26168,7 @@
       <c r="B105" t="s">
         <v>496</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>497</v>
       </c>
       <c r="D105" s="13" t="s">
@@ -26176,13 +26177,13 @@
       <c r="E105" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F105" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="G105" s="19">
+      <c r="G105" s="17">
         <v>97311.852885394</v>
       </c>
-      <c r="H105" s="19">
+      <c r="H105" s="17">
         <v>-304</v>
       </c>
       <c r="I105" s="13" t="s">
@@ -26196,7 +26197,7 @@
       <c r="B106" t="s">
         <v>500</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="17" t="s">
         <v>501</v>
       </c>
       <c r="D106" s="13" t="s">
@@ -26205,13 +26206,13 @@
       <c r="E106" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="17">
         <v>96860.5988853939</v>
       </c>
-      <c r="H106" s="19">
+      <c r="H106" s="17">
         <v>-304</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -26225,7 +26226,7 @@
       <c r="B107" t="s">
         <v>504</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>505</v>
       </c>
       <c r="D107" s="13" t="s">
@@ -26234,13 +26235,13 @@
       <c r="E107" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107" s="17">
         <v>97096.812885394</v>
       </c>
-      <c r="H107" s="19">
+      <c r="H107" s="17">
         <v>-304</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -26254,7 +26255,7 @@
       <c r="B108" t="s">
         <v>508</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="17" t="s">
         <v>509</v>
       </c>
       <c r="D108" s="13" t="s">
@@ -26263,13 +26264,13 @@
       <c r="E108" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="G108" s="19">
+      <c r="G108" s="17">
         <v>96496.182885394</v>
       </c>
-      <c r="H108" s="19">
+      <c r="H108" s="17">
         <v>-304</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -26283,7 +26284,7 @@
       <c r="B109" t="s">
         <v>512</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>513</v>
       </c>
       <c r="D109" s="13" t="s">
@@ -26292,13 +26293,13 @@
       <c r="E109" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G109" s="17">
         <v>96735.293885394</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H109" s="17">
         <v>-304</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -26312,7 +26313,7 @@
       <c r="B110" t="s">
         <v>516</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="17" t="s">
         <v>517</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -26321,13 +26322,13 @@
       <c r="E110" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="G110" s="19">
+      <c r="G110" s="17">
         <v>96966.3878853939</v>
       </c>
-      <c r="H110" s="19">
+      <c r="H110" s="17">
         <v>-304</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -26341,7 +26342,7 @@
       <c r="B111" t="s">
         <v>520</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>521</v>
       </c>
       <c r="D111" s="13" t="s">
@@ -26350,13 +26351,13 @@
       <c r="E111" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="G111" s="19">
+      <c r="G111" s="17">
         <v>97137.556885394</v>
       </c>
-      <c r="H111" s="19">
+      <c r="H111" s="17">
         <v>-304</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -26370,7 +26371,7 @@
       <c r="B112" t="s">
         <v>524</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="17" t="s">
         <v>525</v>
       </c>
       <c r="D112" s="13" t="s">
@@ -26379,13 +26380,13 @@
       <c r="E112" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F112" s="19" t="s">
+      <c r="F112" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="G112" s="19">
+      <c r="G112" s="17">
         <v>97589.3408853939</v>
       </c>
-      <c r="H112" s="19">
+      <c r="H112" s="17">
         <v>-304</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -26399,7 +26400,7 @@
       <c r="B113" t="s">
         <v>528</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>529</v>
       </c>
       <c r="D113" s="13" t="s">
@@ -26408,13 +26409,13 @@
       <c r="E113" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="G113" s="19">
+      <c r="G113" s="17">
         <v>97023.285885394</v>
       </c>
-      <c r="H113" s="19">
+      <c r="H113" s="17">
         <v>-304</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -26428,7 +26429,7 @@
       <c r="B114" t="s">
         <v>532</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="17" t="s">
         <v>533</v>
       </c>
       <c r="D114" s="13" t="s">
@@ -26437,13 +26438,13 @@
       <c r="E114" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F114" s="19" t="s">
+      <c r="F114" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="G114" s="19">
+      <c r="G114" s="17">
         <v>96871.5228853939</v>
       </c>
-      <c r="H114" s="19">
+      <c r="H114" s="17">
         <v>-304</v>
       </c>
       <c r="I114" s="13" t="s">
@@ -26457,7 +26458,7 @@
       <c r="B115" t="s">
         <v>536</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="17" t="s">
         <v>537</v>
       </c>
       <c r="D115" s="13" t="s">
@@ -26466,13 +26467,13 @@
       <c r="E115" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F115" s="19" t="s">
+      <c r="F115" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="G115" s="19">
+      <c r="G115" s="17">
         <v>97302.896885394</v>
       </c>
-      <c r="H115" s="19">
+      <c r="H115" s="17">
         <v>-304</v>
       </c>
       <c r="I115" s="13" t="s">
@@ -26486,7 +26487,7 @@
       <c r="B116" t="s">
         <v>540</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="17" t="s">
         <v>541</v>
       </c>
       <c r="D116" s="13" t="s">
@@ -26495,13 +26496,13 @@
       <c r="E116" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F116" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116" s="17">
         <v>96678.440885394</v>
       </c>
-      <c r="H116" s="19">
+      <c r="H116" s="17">
         <v>-304</v>
       </c>
       <c r="I116" s="13" t="s">
@@ -26515,7 +26516,7 @@
       <c r="B117" t="s">
         <v>544</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="17" t="s">
         <v>545</v>
       </c>
       <c r="D117" s="13" t="s">
@@ -26524,13 +26525,13 @@
       <c r="E117" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="F117" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G117" s="17">
         <v>11068.977</v>
       </c>
-      <c r="H117" s="19">
+      <c r="H117" s="17">
         <v>15</v>
       </c>
       <c r="I117" s="13" t="s">
@@ -26544,7 +26545,7 @@
       <c r="B118" t="s">
         <v>549</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C118" s="17" t="s">
         <v>550</v>
       </c>
       <c r="D118" s="13" t="s">
@@ -26553,13 +26554,13 @@
       <c r="E118" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F118" s="19" t="s">
+      <c r="F118" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="17">
         <v>11509.5399999999</v>
       </c>
-      <c r="H118" s="19">
+      <c r="H118" s="17">
         <v>15</v>
       </c>
       <c r="I118" s="13" t="s">
@@ -26573,7 +26574,7 @@
       <c r="B119" t="s">
         <v>553</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="17" t="s">
         <v>554</v>
       </c>
       <c r="D119" s="13" t="s">
@@ -26582,13 +26583,13 @@
       <c r="E119" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G119" s="17">
         <v>11210.137</v>
       </c>
-      <c r="H119" s="19">
+      <c r="H119" s="17">
         <v>10</v>
       </c>
       <c r="I119" s="13" t="s">
@@ -26602,7 +26603,7 @@
       <c r="B120" t="s">
         <v>557</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="17" t="s">
         <v>558</v>
       </c>
       <c r="D120" s="13" t="s">
@@ -26611,13 +26612,13 @@
       <c r="E120" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F120" s="19" t="s">
+      <c r="F120" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="G120" s="19">
+      <c r="G120" s="17">
         <v>11402.3229999999</v>
       </c>
-      <c r="H120" s="19">
+      <c r="H120" s="17">
         <v>12</v>
       </c>
       <c r="I120" s="13" t="s">
@@ -26631,7 +26632,7 @@
       <c r="B121" t="s">
         <v>561</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="17" t="s">
         <v>562</v>
       </c>
       <c r="D121" s="13" t="s">
@@ -26640,13 +26641,13 @@
       <c r="E121" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F121" s="19" t="s">
+      <c r="F121" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G121" s="17">
         <v>11228.4039999999</v>
       </c>
-      <c r="H121" s="19">
+      <c r="H121" s="17">
         <v>16</v>
       </c>
       <c r="I121" s="13" t="s">
@@ -26660,7 +26661,7 @@
       <c r="B122" t="s">
         <v>565</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="17" t="s">
         <v>566</v>
       </c>
       <c r="D122" s="13" t="s">
@@ -26669,13 +26670,13 @@
       <c r="E122" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F122" s="19" t="s">
+      <c r="F122" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="G122" s="19">
+      <c r="G122" s="17">
         <v>11510.6239999999</v>
       </c>
-      <c r="H122" s="19">
+      <c r="H122" s="17">
         <v>12</v>
       </c>
       <c r="I122" s="13" t="s">
@@ -26689,7 +26690,7 @@
       <c r="B123" t="s">
         <v>569</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>570</v>
       </c>
       <c r="D123" s="13" t="s">
@@ -26698,13 +26699,13 @@
       <c r="E123" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123" s="17">
         <v>10611.364</v>
       </c>
-      <c r="H123" s="19">
+      <c r="H123" s="17">
         <v>6</v>
       </c>
       <c r="I123" s="13" t="s">
@@ -26718,7 +26719,7 @@
       <c r="B124" t="s">
         <v>573</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="17" t="s">
         <v>574</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -26727,13 +26728,13 @@
       <c r="E124" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F124" s="19" t="s">
+      <c r="F124" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="G124" s="19">
+      <c r="G124" s="17">
         <v>11124.189</v>
       </c>
-      <c r="H124" s="19">
+      <c r="H124" s="17">
         <v>12</v>
       </c>
       <c r="I124" s="13" t="s">
@@ -26747,7 +26748,7 @@
       <c r="B125" t="s">
         <v>577</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="17" t="s">
         <v>578</v>
       </c>
       <c r="D125" s="13" t="s">
@@ -26756,13 +26757,13 @@
       <c r="E125" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="G125" s="19">
+      <c r="G125" s="17">
         <v>10765.576</v>
       </c>
-      <c r="H125" s="19">
+      <c r="H125" s="17">
         <v>8</v>
       </c>
       <c r="I125" s="13" t="s">
@@ -26776,7 +26777,7 @@
       <c r="B126" t="s">
         <v>581</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="17" t="s">
         <v>582</v>
       </c>
       <c r="D126" s="13" t="s">
@@ -26785,13 +26786,13 @@
       <c r="E126" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F126" s="19" t="s">
+      <c r="F126" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="G126" s="19">
+      <c r="G126" s="17">
         <v>11061.0349999999</v>
       </c>
-      <c r="H126" s="19">
+      <c r="H126" s="17">
         <v>10</v>
       </c>
       <c r="I126" s="13" t="s">
@@ -26805,7 +26806,7 @@
       <c r="B127" t="s">
         <v>585</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>586</v>
       </c>
       <c r="D127" s="13" t="s">
@@ -26814,13 +26815,13 @@
       <c r="E127" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="G127" s="19">
+      <c r="G127" s="17">
         <v>10950.7359999999</v>
       </c>
-      <c r="H127" s="19">
+      <c r="H127" s="17">
         <v>9</v>
       </c>
       <c r="I127" s="13" t="s">
@@ -26834,7 +26835,7 @@
       <c r="B128" t="s">
         <v>589</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="17" t="s">
         <v>590</v>
       </c>
       <c r="D128" s="13" t="s">
@@ -26846,10 +26847,10 @@
       <c r="F128" t="s">
         <v>591</v>
       </c>
-      <c r="G128" s="19">
+      <c r="G128" s="17">
         <v>11212.944</v>
       </c>
-      <c r="H128" s="19">
+      <c r="H128" s="17">
         <v>10</v>
       </c>
       <c r="I128" s="13" t="s">
@@ -26863,7 +26864,7 @@
       <c r="B129" t="s">
         <v>593</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="17" t="s">
         <v>594</v>
       </c>
       <c r="D129" s="13" t="s">
@@ -26872,13 +26873,13 @@
       <c r="E129" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F129" s="19" t="s">
+      <c r="F129" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="G129" s="19">
+      <c r="G129" s="17">
         <v>11338.103</v>
       </c>
-      <c r="H129" s="19">
+      <c r="H129" s="17">
         <v>13</v>
       </c>
       <c r="I129" s="13" t="s">
@@ -26892,7 +26893,7 @@
       <c r="B130" t="s">
         <v>597</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="17" t="s">
         <v>598</v>
       </c>
       <c r="D130" s="13" t="s">
@@ -26901,13 +26902,13 @@
       <c r="E130" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F130" s="19" t="s">
+      <c r="F130" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="G130" s="19">
+      <c r="G130" s="17">
         <v>11075.8249999999</v>
       </c>
-      <c r="H130" s="19">
+      <c r="H130" s="17">
         <v>15</v>
       </c>
       <c r="I130" s="13" t="s">
@@ -26921,7 +26922,7 @@
       <c r="B131" t="s">
         <v>601</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="17" t="s">
         <v>602</v>
       </c>
       <c r="D131" s="13" t="s">
@@ -26930,13 +26931,13 @@
       <c r="E131" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F131" s="19" t="s">
+      <c r="F131" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="G131" s="19">
+      <c r="G131" s="17">
         <v>10795.558</v>
       </c>
-      <c r="H131" s="19">
+      <c r="H131" s="17">
         <v>12</v>
       </c>
       <c r="I131" s="13" t="s">
@@ -26950,7 +26951,7 @@
       <c r="B132" t="s">
         <v>605</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="17" t="s">
         <v>606</v>
       </c>
       <c r="D132" s="13" t="s">
@@ -26959,13 +26960,13 @@
       <c r="E132" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="G132" s="19">
+      <c r="G132" s="17">
         <v>11334.185</v>
       </c>
-      <c r="H132" s="19">
+      <c r="H132" s="17">
         <v>12</v>
       </c>
       <c r="I132" s="13" t="s">
@@ -26979,7 +26980,7 @@
       <c r="B133" t="s">
         <v>609</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="17" t="s">
         <v>610</v>
       </c>
       <c r="D133" s="13" t="s">
@@ -26988,13 +26989,13 @@
       <c r="E133" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F133" s="19" t="s">
+      <c r="F133" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="G133" s="19">
+      <c r="G133" s="17">
         <v>10696.3879999999</v>
       </c>
-      <c r="H133" s="19">
+      <c r="H133" s="17">
         <v>11</v>
       </c>
       <c r="I133" s="13" t="s">
@@ -27008,7 +27009,7 @@
       <c r="B134" t="s">
         <v>613</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="17" t="s">
         <v>614</v>
       </c>
       <c r="D134" s="13" t="s">
@@ -27017,13 +27018,13 @@
       <c r="E134" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="G134" s="19">
+      <c r="G134" s="17">
         <v>11615.621</v>
       </c>
-      <c r="H134" s="19">
+      <c r="H134" s="17">
         <v>15</v>
       </c>
       <c r="I134" s="13" t="s">
@@ -27037,7 +27038,7 @@
       <c r="B135" t="s">
         <v>617</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="17" t="s">
         <v>618</v>
       </c>
       <c r="D135" s="13" t="s">
@@ -27046,13 +27047,13 @@
       <c r="E135" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F135" s="19" t="s">
+      <c r="F135" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="G135" s="19">
+      <c r="G135" s="17">
         <v>11073.1959999999</v>
       </c>
-      <c r="H135" s="19">
+      <c r="H135" s="17">
         <v>14</v>
       </c>
       <c r="I135" s="13" t="s">
@@ -27066,7 +27067,7 @@
       <c r="B136" t="s">
         <v>621</v>
       </c>
-      <c r="C136" s="19" t="s">
+      <c r="C136" s="17" t="s">
         <v>622</v>
       </c>
       <c r="D136" s="13" t="s">
@@ -27075,13 +27076,13 @@
       <c r="E136" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="G136" s="19">
+      <c r="G136" s="17">
         <v>10912.5829999999</v>
       </c>
-      <c r="H136" s="19">
+      <c r="H136" s="17">
         <v>10</v>
       </c>
       <c r="I136" s="13" t="s">
@@ -27095,7 +27096,7 @@
       <c r="B137" t="s">
         <v>625</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="17" t="s">
         <v>626</v>
       </c>
       <c r="D137" s="13" t="s">
@@ -27104,13 +27105,13 @@
       <c r="E137" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F137" s="19" t="s">
+      <c r="F137" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="G137" s="19">
+      <c r="G137" s="17">
         <v>11142.5549999999</v>
       </c>
-      <c r="H137" s="19">
+      <c r="H137" s="17">
         <v>18</v>
       </c>
       <c r="I137" s="13" t="s">
@@ -27124,7 +27125,7 @@
       <c r="B138" t="s">
         <v>629</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="17" t="s">
         <v>630</v>
       </c>
       <c r="D138" s="13" t="s">
@@ -27133,13 +27134,13 @@
       <c r="E138" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F138" s="19" t="s">
+      <c r="F138" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138" s="17">
         <v>11117.204</v>
       </c>
-      <c r="H138" s="19">
+      <c r="H138" s="17">
         <v>15</v>
       </c>
       <c r="I138" s="13" t="s">
@@ -27153,7 +27154,7 @@
       <c r="B139" t="s">
         <v>633</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="17" t="s">
         <v>634</v>
       </c>
       <c r="D139" s="13" t="s">
@@ -27162,13 +27163,13 @@
       <c r="E139" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F139" s="19" t="s">
+      <c r="F139" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="G139" s="19">
+      <c r="G139" s="17">
         <v>11130.2939999999</v>
       </c>
-      <c r="H139" s="19">
+      <c r="H139" s="17">
         <v>14</v>
       </c>
       <c r="I139" s="13" t="s">
@@ -27182,7 +27183,7 @@
       <c r="B140" t="s">
         <v>637</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="17" t="s">
         <v>638</v>
       </c>
       <c r="D140" s="13" t="s">
@@ -27191,13 +27192,13 @@
       <c r="E140" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F140" s="19" t="s">
+      <c r="F140" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="G140" s="19">
+      <c r="G140" s="17">
         <v>11929.4729999999</v>
       </c>
-      <c r="H140" s="19">
+      <c r="H140" s="17">
         <v>16</v>
       </c>
       <c r="I140" s="13" t="s">
@@ -27211,7 +27212,7 @@
       <c r="B141" t="s">
         <v>641</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="17" t="s">
         <v>642</v>
       </c>
       <c r="D141" s="13" t="s">
@@ -27220,13 +27221,13 @@
       <c r="E141" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F141" s="19" t="s">
+      <c r="F141" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="G141" s="19">
+      <c r="G141" s="17">
         <v>11252.215</v>
       </c>
-      <c r="H141" s="19">
+      <c r="H141" s="17">
         <v>12</v>
       </c>
       <c r="I141" s="13" t="s">
@@ -27240,7 +27241,7 @@
       <c r="B142" t="s">
         <v>645</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="17" t="s">
         <v>646</v>
       </c>
       <c r="D142" s="13" t="s">
@@ -27249,13 +27250,13 @@
       <c r="E142" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F142" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="G142" s="19">
+      <c r="G142" s="17">
         <v>11461.375</v>
       </c>
-      <c r="H142" s="19">
+      <c r="H142" s="17">
         <v>17</v>
       </c>
       <c r="I142" s="13" t="s">
@@ -27269,7 +27270,7 @@
       <c r="B143" t="s">
         <v>649</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="17" t="s">
         <v>650</v>
       </c>
       <c r="D143" s="13" t="s">
@@ -27278,13 +27279,13 @@
       <c r="E143" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F143" s="19" t="s">
+      <c r="F143" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="G143" s="19">
+      <c r="G143" s="17">
         <v>11351.429</v>
       </c>
-      <c r="H143" s="19">
+      <c r="H143" s="17">
         <v>12</v>
       </c>
       <c r="I143" s="13" t="s">
@@ -27298,7 +27299,7 @@
       <c r="B144" t="s">
         <v>653</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="17" t="s">
         <v>654</v>
       </c>
       <c r="D144" s="13" t="s">
@@ -27307,13 +27308,13 @@
       <c r="E144" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F144" s="19" t="s">
+      <c r="F144" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="G144" s="19">
+      <c r="G144" s="17">
         <v>10777.3079999999</v>
       </c>
-      <c r="H144" s="19">
+      <c r="H144" s="17">
         <v>14</v>
       </c>
       <c r="I144" s="13" t="s">
@@ -27327,7 +27328,7 @@
       <c r="B145" t="s">
         <v>657</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="17" t="s">
         <v>658</v>
       </c>
       <c r="D145" s="13" t="s">
@@ -27336,13 +27337,13 @@
       <c r="E145" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="F145" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="G145" s="19">
+      <c r="G145" s="17">
         <v>10723.668</v>
       </c>
-      <c r="H145" s="19">
+      <c r="H145" s="17">
         <v>12</v>
       </c>
       <c r="I145" s="13" t="s">
@@ -27356,7 +27357,7 @@
       <c r="B146" t="s">
         <v>661</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="17" t="s">
         <v>662</v>
       </c>
       <c r="D146" s="13" t="s">
@@ -27365,13 +27366,13 @@
       <c r="E146" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F146" s="19" t="s">
+      <c r="F146" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="G146" s="19">
+      <c r="G146" s="17">
         <v>11050.778</v>
       </c>
-      <c r="H146" s="19">
+      <c r="H146" s="17">
         <v>14</v>
       </c>
       <c r="I146" s="13" t="s">
@@ -27428,11 +27429,11 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -30135,10 +30136,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>672</v>
       </c>
@@ -30161,10 +30162,10 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>674</v>
       </c>
@@ -30187,10 +30188,10 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>675</v>
       </c>
@@ -30213,10 +30214,10 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>677</v>
       </c>
@@ -30239,10 +30240,10 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>679</v>
       </c>
@@ -30265,10 +30266,10 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>681</v>
       </c>
@@ -30286,10 +30287,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
         <v>683</v>
       </c>
@@ -30307,10 +30308,10 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>685</v>
       </c>
@@ -30328,10 +30329,10 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>686</v>
       </c>
@@ -30349,10 +30350,10 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>696</v>
       </c>
@@ -30370,10 +30371,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3" t="s">
         <v>698</v>
       </c>
@@ -30391,10 +30392,10 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3" t="s">
         <v>700</v>
       </c>
@@ -30412,10 +30413,10 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>862</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>702</v>
       </c>
@@ -30433,10 +30434,10 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>704</v>
       </c>
@@ -30454,10 +30455,10 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>706</v>
       </c>
@@ -30475,10 +30476,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3" t="s">
         <v>707</v>
       </c>
@@ -30496,10 +30497,10 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>866</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>708</v>
       </c>
@@ -30517,10 +30518,10 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>709</v>
       </c>
@@ -30538,10 +30539,10 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>711</v>
       </c>
@@ -30559,10 +30560,10 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>714</v>
       </c>
@@ -30580,10 +30581,10 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>716</v>
       </c>
@@ -30601,10 +30602,10 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
         <v>718</v>
       </c>
@@ -30622,10 +30623,10 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="3" t="s">
         <v>724</v>
       </c>
@@ -30643,10 +30644,10 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3" t="s">
         <v>726</v>
       </c>
@@ -30664,10 +30665,10 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3" t="s">
         <v>727</v>
       </c>
@@ -30685,10 +30686,10 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3" t="s">
         <v>728</v>
       </c>
@@ -30706,10 +30707,10 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>735</v>
       </c>
@@ -30727,10 +30728,10 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
         <v>739</v>
       </c>
@@ -30748,10 +30749,10 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
         <v>741</v>
       </c>
@@ -30769,10 +30770,10 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3" t="s">
         <v>743</v>
       </c>
@@ -30790,10 +30791,10 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
         <v>746</v>
       </c>
@@ -30811,10 +30812,10 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
         <v>749</v>
       </c>
@@ -30832,10 +30833,10 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
         <v>750</v>
       </c>
@@ -30853,10 +30854,10 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3" t="s">
         <v>753</v>
       </c>
@@ -30874,10 +30875,10 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="3" t="s">
         <v>754</v>
       </c>
@@ -30895,10 +30896,10 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3" t="s">
         <v>755</v>
       </c>
@@ -30916,10 +30917,10 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="3" t="s">
         <v>756</v>
       </c>
@@ -30937,10 +30938,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="3" t="s">
         <v>757</v>
       </c>
@@ -30958,10 +30959,10 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
         <v>758</v>
       </c>
@@ -30979,10 +30980,10 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>759</v>
       </c>
@@ -31000,10 +31001,10 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3" t="s">
         <v>760</v>
       </c>
@@ -31021,10 +31022,10 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="3" t="s">
         <v>761</v>
       </c>
@@ -31042,10 +31043,10 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>762</v>
       </c>
@@ -31063,10 +31064,10 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>763</v>
       </c>
@@ -31084,10 +31085,10 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>894</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
         <v>764</v>
       </c>
@@ -31105,10 +31106,10 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>895</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="3" t="s">
         <v>765</v>
       </c>
@@ -31126,10 +31127,10 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>896</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="3" t="s">
         <v>766</v>
       </c>
@@ -31147,10 +31148,10 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="3" t="s">
         <v>767</v>
       </c>
@@ -31168,10 +31169,10 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>898</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="3" t="s">
         <v>768</v>
       </c>
@@ -31189,10 +31190,10 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="3" t="s">
         <v>769</v>
       </c>
@@ -31210,10 +31211,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>900</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="3" t="s">
         <v>770</v>
       </c>
@@ -31231,10 +31232,10 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="3" t="s">
         <v>771</v>
       </c>
@@ -31252,10 +31253,10 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="19" t="s">
         <v>902</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="3" t="s">
         <v>772</v>
       </c>
@@ -31273,10 +31274,10 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>903</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="3" t="s">
         <v>773</v>
       </c>
@@ -31294,10 +31295,10 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="3" t="s">
         <v>774</v>
       </c>
@@ -31315,10 +31316,10 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="3" t="s">
         <v>775</v>
       </c>
@@ -31336,10 +31337,10 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="19" t="s">
         <v>906</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="3" t="s">
         <v>776</v>
       </c>
@@ -31357,10 +31358,10 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="3" t="s">
         <v>777</v>
       </c>
@@ -31378,10 +31379,10 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="19" t="s">
         <v>908</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3" t="s">
         <v>778</v>
       </c>
@@ -31399,10 +31400,10 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>909</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3" t="s">
         <v>779</v>
       </c>
@@ -31420,10 +31421,10 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="19" t="s">
         <v>910</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="3" t="s">
         <v>780</v>
       </c>
@@ -31441,10 +31442,10 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="3" t="s">
         <v>781</v>
       </c>
@@ -31462,10 +31463,10 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>912</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="3" t="s">
         <v>782</v>
       </c>
@@ -31483,10 +31484,10 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="19" t="s">
         <v>913</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="3" t="s">
         <v>783</v>
       </c>
@@ -31504,10 +31505,10 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>914</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="3" t="s">
         <v>784</v>
       </c>
@@ -31525,10 +31526,10 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>915</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="3" t="s">
         <v>785</v>
       </c>
@@ -31546,10 +31547,10 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="B69" s="19"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="3" t="s">
         <v>786</v>
       </c>
@@ -31567,10 +31568,10 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="3" t="s">
         <v>787</v>
       </c>
@@ -31588,10 +31589,10 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="19" t="s">
         <v>918</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="3" t="s">
         <v>788</v>
       </c>
@@ -31609,10 +31610,10 @@
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="3" t="s">
         <v>789</v>
       </c>
@@ -31630,10 +31631,10 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="3" t="s">
         <v>790</v>
       </c>
@@ -31651,10 +31652,10 @@
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>921</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="3" t="s">
         <v>791</v>
       </c>
@@ -31672,10 +31673,10 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="3" t="s">
         <v>792</v>
       </c>
@@ -31693,10 +31694,10 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="3" t="s">
         <v>793</v>
       </c>
@@ -31714,10 +31715,10 @@
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="3" t="s">
         <v>794</v>
       </c>
@@ -31735,10 +31736,10 @@
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="B78" s="19"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="3" t="s">
         <v>795</v>
       </c>
@@ -31756,10 +31757,10 @@
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="3" t="s">
         <v>796</v>
       </c>
@@ -31777,10 +31778,10 @@
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="3" t="s">
         <v>797</v>
       </c>
@@ -31798,10 +31799,10 @@
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="19" t="s">
         <v>928</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="3" t="s">
         <v>798</v>
       </c>
@@ -31819,10 +31820,10 @@
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="3" t="s">
         <v>799</v>
       </c>
@@ -31840,10 +31841,10 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="19" t="s">
         <v>930</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="3" t="s">
         <v>800</v>
       </c>
@@ -31861,10 +31862,10 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="3" t="s">
         <v>801</v>
       </c>
@@ -31882,10 +31883,10 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="3" t="s">
         <v>802</v>
       </c>
@@ -31903,10 +31904,10 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="19" t="s">
         <v>933</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="3" t="s">
         <v>803</v>
       </c>
@@ -31924,10 +31925,10 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="3" t="s">
         <v>804</v>
       </c>
@@ -31945,10 +31946,10 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="3" t="s">
         <v>805</v>
       </c>
@@ -31966,10 +31967,10 @@
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="3" t="s">
         <v>806</v>
       </c>
@@ -31987,10 +31988,10 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="19" t="s">
         <v>937</v>
       </c>
-      <c r="B90" s="19"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="3" t="s">
         <v>807</v>
       </c>
@@ -32008,10 +32009,10 @@
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="B91" s="19"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="3" t="s">
         <v>808</v>
       </c>
@@ -32029,10 +32030,10 @@
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="19" t="s">
         <v>939</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="3" t="s">
         <v>809</v>
       </c>
@@ -32050,10 +32051,10 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="19" t="s">
         <v>940</v>
       </c>
-      <c r="B93" s="19"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="3" t="s">
         <v>810</v>
       </c>
@@ -32071,10 +32072,10 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="3" t="s">
         <v>811</v>
       </c>
@@ -32092,10 +32093,10 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="19" t="s">
         <v>942</v>
       </c>
-      <c r="B95" s="19"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="3" t="s">
         <v>812</v>
       </c>
@@ -32113,10 +32114,10 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="B96" s="19"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="3" t="s">
         <v>814</v>
       </c>
@@ -32134,10 +32135,10 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="B97" s="19"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="3" t="s">
         <v>815</v>
       </c>
@@ -32155,10 +32156,10 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="3" t="s">
         <v>816</v>
       </c>
@@ -32176,10 +32177,10 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="3" t="s">
         <v>817</v>
       </c>
@@ -32197,10 +32198,10 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="3" t="s">
         <v>818</v>
       </c>
@@ -32218,10 +32219,10 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="3" t="s">
         <v>819</v>
       </c>
@@ -32239,10 +32240,10 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="3" t="s">
         <v>820</v>
       </c>
@@ -32260,10 +32261,10 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="3" t="s">
         <v>821</v>
       </c>
@@ -32281,10 +32282,10 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="B104" s="19"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="3" t="s">
         <v>822</v>
       </c>
@@ -32302,10 +32303,10 @@
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="3" t="s">
         <v>823</v>
       </c>
@@ -32323,10 +32324,10 @@
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="B106" s="19"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="3" t="s">
         <v>824</v>
       </c>
@@ -32344,10 +32345,10 @@
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="3" t="s">
         <v>825</v>
       </c>
@@ -32365,10 +32366,10 @@
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="3" t="s">
         <v>826</v>
       </c>
@@ -32386,10 +32387,10 @@
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="3" t="s">
         <v>827</v>
       </c>
@@ -32407,10 +32408,10 @@
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="B110" s="19"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="3" t="s">
         <v>828</v>
       </c>
@@ -32428,10 +32429,10 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="3" t="s">
         <v>829</v>
       </c>
@@ -32449,10 +32450,10 @@
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="B112" s="19"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="3" t="s">
         <v>830</v>
       </c>
@@ -32470,10 +32471,10 @@
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="19" t="s">
         <v>960</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="3" t="s">
         <v>832</v>
       </c>
@@ -32491,10 +32492,10 @@
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="19" t="s">
         <v>961</v>
       </c>
-      <c r="B114" s="19"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="3" t="s">
         <v>833</v>
       </c>
@@ -32512,10 +32513,10 @@
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="3" t="s">
         <v>834</v>
       </c>
@@ -32533,10 +32534,10 @@
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="19" t="s">
         <v>963</v>
       </c>
-      <c r="B116" s="19"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="3" t="s">
         <v>835</v>
       </c>
@@ -32554,10 +32555,10 @@
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="3" t="s">
         <v>836</v>
       </c>
@@ -32575,10 +32576,10 @@
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="B118" s="19"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="3" t="s">
         <v>837</v>
       </c>
@@ -32596,10 +32597,10 @@
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="19" t="s">
         <v>966</v>
       </c>
-      <c r="B119" s="19"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="3" t="s">
         <v>838</v>
       </c>
@@ -32617,10 +32618,10 @@
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:7">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="3" t="s">
         <v>839</v>
       </c>
@@ -32638,10 +32639,10 @@
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="3" t="s">
         <v>840</v>
       </c>
@@ -32659,10 +32660,10 @@
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="19" t="s">
         <v>969</v>
       </c>
-      <c r="B122" s="19"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="3" t="s">
         <v>841</v>
       </c>
@@ -32680,10 +32681,10 @@
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="3" t="s">
         <v>842</v>
       </c>
@@ -32701,10 +32702,10 @@
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="B124" s="19"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="3" t="s">
         <v>843</v>
       </c>
@@ -32722,10 +32723,10 @@
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="B125" s="19"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="3" t="s">
         <v>844</v>
       </c>
@@ -32743,10 +32744,10 @@
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="B126" s="19"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="3" t="s">
         <v>845</v>
       </c>
@@ -32764,10 +32765,10 @@
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="19" t="s">
         <v>974</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="3" t="s">
         <v>846</v>
       </c>
